--- a/mat/mat_python/sum_pred.xlsx
+++ b/mat/mat_python/sum_pred.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,7 +428,7 @@
         <v>44207.04166666666</v>
       </c>
       <c r="B7">
-        <v>0.2615784046938024</v>
+        <v>0.2608454377266796</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -436,7 +436,7 @@
         <v>44207.05</v>
       </c>
       <c r="B8">
-        <v>0.2661296499697726</v>
+        <v>0.2562465068066437</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -444,7 +444,7 @@
         <v>44207.05833333333</v>
       </c>
       <c r="B9">
-        <v>0.2702025800630724</v>
+        <v>0.259558125429887</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -452,7 +452,7 @@
         <v>44207.06666666667</v>
       </c>
       <c r="B10">
-        <v>0.2725724338351588</v>
+        <v>0.2578672245387723</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -460,7 +460,7 @@
         <v>44207.075</v>
       </c>
       <c r="B11">
-        <v>0.2721455544573428</v>
+        <v>0.2580609868273824</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -508,7 +508,7 @@
         <v>44207.125</v>
       </c>
       <c r="B17">
-        <v>0.2820094121414566</v>
+        <v>0.2622598060074415</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -516,7 +516,7 @@
         <v>44207.13333333333</v>
       </c>
       <c r="B18">
-        <v>0.283228759340473</v>
+        <v>0.2594474982265031</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -524,7 +524,7 @@
         <v>44207.14166666667</v>
       </c>
       <c r="B19">
-        <v>0.284520319142881</v>
+        <v>0.2571148004849315</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -532,7 +532,7 @@
         <v>44207.15</v>
       </c>
       <c r="B20">
-        <v>0.2863717766116008</v>
+        <v>0.2673040477798794</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -540,7 +540,7 @@
         <v>44207.15833333333</v>
       </c>
       <c r="B21">
-        <v>0.2882390167180016</v>
+        <v>0.2680190886270534</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -588,7 +588,7 @@
         <v>44207.20833333334</v>
       </c>
       <c r="B27">
-        <v>0.2529400997017888</v>
+        <v>0.2552628917862298</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -596,7 +596,7 @@
         <v>44207.21666666667</v>
       </c>
       <c r="B28">
-        <v>0.2496788435781138</v>
+        <v>0.2560075164893793</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -604,7 +604,7 @@
         <v>44207.225</v>
       </c>
       <c r="B29">
-        <v>0.2445178133528964</v>
+        <v>0.254935606561864</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -612,7 +612,7 @@
         <v>44207.23333333333</v>
       </c>
       <c r="B30">
-        <v>0.2404895473870851</v>
+        <v>0.2585075591877303</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -620,7 +620,7 @@
         <v>44207.24166666667</v>
       </c>
       <c r="B31">
-        <v>0.2369204842165447</v>
+        <v>0.2596238906756974</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -668,7 +668,7 @@
         <v>44207.29166666666</v>
       </c>
       <c r="B37">
-        <v>0.2834110054829913</v>
+        <v>0.2734487385144338</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -676,7 +676,7 @@
         <v>44207.3</v>
       </c>
       <c r="B38">
-        <v>0.2887810882508788</v>
+        <v>0.2772285539314642</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -684,7 +684,7 @@
         <v>44207.30833333333</v>
       </c>
       <c r="B39">
-        <v>0.2947654497073273</v>
+        <v>0.2768953469581271</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -692,7 +692,7 @@
         <v>44207.31666666667</v>
       </c>
       <c r="B40">
-        <v>0.2997561628621377</v>
+        <v>0.2758362448508602</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -700,7 +700,7 @@
         <v>44207.325</v>
       </c>
       <c r="B41">
-        <v>0.3047797271356665</v>
+        <v>0.2736416541000209</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -748,7 +748,7 @@
         <v>44207.375</v>
       </c>
       <c r="B47">
-        <v>0.2822791806010835</v>
+        <v>0.2986914852670869</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -756,7 +756,7 @@
         <v>44207.38333333333</v>
       </c>
       <c r="B48">
-        <v>0.2878412367960462</v>
+        <v>0.3152574768922919</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -764,7 +764,7 @@
         <v>44207.39166666667</v>
       </c>
       <c r="B49">
-        <v>0.2950091744948266</v>
+        <v>0.3234752034241185</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -772,7 +772,7 @@
         <v>44207.4</v>
       </c>
       <c r="B50">
-        <v>0.302093878177757</v>
+        <v>0.3394433430024922</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -780,7 +780,7 @@
         <v>44207.40833333333</v>
       </c>
       <c r="B51">
-        <v>0.3078547442424613</v>
+        <v>0.3441111367233951</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -828,7 +828,7 @@
         <v>44207.45833333334</v>
       </c>
       <c r="B57">
-        <v>0.3523954356088802</v>
+        <v>0.3465402916216327</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -836,7 +836,7 @@
         <v>44207.46666666667</v>
       </c>
       <c r="B58">
-        <v>0.3466680495743397</v>
+        <v>0.3461583858947491</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -844,7 +844,7 @@
         <v>44207.475</v>
       </c>
       <c r="B59">
-        <v>0.3480102525069796</v>
+        <v>0.3570865860433848</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -852,7 +852,7 @@
         <v>44207.48333333333</v>
       </c>
       <c r="B60">
-        <v>0.3473700205332088</v>
+        <v>0.3548720836302445</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -860,7 +860,7 @@
         <v>44207.49166666667</v>
       </c>
       <c r="B61">
-        <v>0.3522778122927054</v>
+        <v>0.3928180172433361</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -908,7 +908,7 @@
         <v>44207.54166666666</v>
       </c>
       <c r="B67">
-        <v>0.4842695464974174</v>
+        <v>0.4918819013845891</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -916,7 +916,7 @@
         <v>44207.55</v>
       </c>
       <c r="B68">
-        <v>0.4832063035591208</v>
+        <v>0.4806452297089044</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -924,7 +924,7 @@
         <v>44207.55833333333</v>
       </c>
       <c r="B69">
-        <v>0.4791322517969518</v>
+        <v>0.4772404248176865</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -932,7 +932,7 @@
         <v>44207.56666666667</v>
       </c>
       <c r="B70">
-        <v>0.4691473283533854</v>
+        <v>0.4600505070849906</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -940,7 +940,7 @@
         <v>44207.575</v>
       </c>
       <c r="B71">
-        <v>0.4518954704881661</v>
+        <v>0.4397122639369798</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -988,7 +988,7 @@
         <v>44207.625</v>
       </c>
       <c r="B77">
-        <v>0.3852632901290308</v>
+        <v>0.3659418888385264</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -996,7 +996,7 @@
         <v>44207.63333333333</v>
       </c>
       <c r="B78">
-        <v>0.3806107028489747</v>
+        <v>0.3521096516463644</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>44207.64166666667</v>
       </c>
       <c r="B79">
-        <v>0.3783497061222844</v>
+        <v>0.3549986061205695</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>44207.65</v>
       </c>
       <c r="B80">
-        <v>0.3734885823040095</v>
+        <v>0.3522927888445423</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>44207.65833333333</v>
       </c>
       <c r="B81">
-        <v>0.3710141641001473</v>
+        <v>0.3462953604136885</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>44207.70833333334</v>
       </c>
       <c r="B87">
-        <v>0.3104912071093945</v>
+        <v>0.3231639767172</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>44207.71666666667</v>
       </c>
       <c r="B88">
-        <v>0.3104073547110061</v>
+        <v>0.3216187186302133</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>44207.725</v>
       </c>
       <c r="B89">
-        <v>0.3082544543839357</v>
+        <v>0.3255386151190883</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>44207.73333333333</v>
       </c>
       <c r="B90">
-        <v>0.3110101056372137</v>
+        <v>0.3243027348799561</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>44207.74166666667</v>
       </c>
       <c r="B91">
-        <v>0.31287432774269</v>
+        <v>0.3280776039615242</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44207.79166666666</v>
       </c>
       <c r="B97">
-        <v>0.2980797387856705</v>
+        <v>0.2995682794549515</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44207.8</v>
       </c>
       <c r="B98">
-        <v>0.2955695951020106</v>
+        <v>0.2963944991745357</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44207.80833333333</v>
       </c>
       <c r="B99">
-        <v>0.2901195552610683</v>
+        <v>0.2888946798362608</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44207.81666666667</v>
       </c>
       <c r="B100">
-        <v>0.2904044448292307</v>
+        <v>0.2875182996122297</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44207.825</v>
       </c>
       <c r="B101">
-        <v>0.2906677763846638</v>
+        <v>0.2867741102799078</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44207.875</v>
       </c>
       <c r="B107">
-        <v>0.2876398305845628</v>
+        <v>0.2924768036139507</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44207.88333333333</v>
       </c>
       <c r="B108">
-        <v>0.2922640346059822</v>
+        <v>0.2898505835211286</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44207.89166666667</v>
       </c>
       <c r="B109">
-        <v>0.2967448279565033</v>
+        <v>0.2859077303852731</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44207.9</v>
       </c>
       <c r="B110">
-        <v>0.3029656153841629</v>
+        <v>0.2861768410714333</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44207.90833333333</v>
       </c>
       <c r="B111">
-        <v>0.3087348003707536</v>
+        <v>0.2837032670643252</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44207.95833333334</v>
       </c>
       <c r="B117">
-        <v>0.3133392126554137</v>
+        <v>0.3143020579982224</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44207.96666666667</v>
       </c>
       <c r="B118">
-        <v>0.3141315060836553</v>
+        <v>0.3203022414612022</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44207.975</v>
       </c>
       <c r="B119">
-        <v>0.3111872530053792</v>
+        <v>0.3264537608081944</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44207.98333333333</v>
       </c>
       <c r="B120">
-        <v>0.3064530481055637</v>
+        <v>0.3277177813056944</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44207.99166666667</v>
       </c>
       <c r="B121">
-        <v>0.3010188903283921</v>
+        <v>0.3260855460673959</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>44208.04166666666</v>
       </c>
       <c r="B127">
-        <v>0.3133634603301342</v>
+        <v>0.2991931110985463</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>44208.05</v>
       </c>
       <c r="B128">
-        <v>0.3129209317911773</v>
+        <v>0.300173024016784</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>44208.05833333333</v>
       </c>
       <c r="B129">
-        <v>0.3163108159844917</v>
+        <v>0.2972403922942001</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>44208.06666666667</v>
       </c>
       <c r="B130">
-        <v>0.3159335679190562</v>
+        <v>0.3131820636527201</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>44208.075</v>
       </c>
       <c r="B131">
-        <v>0.3165029141412151</v>
+        <v>0.3104694594655405</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>44208.125</v>
       </c>
       <c r="B137">
-        <v>0.2996685966838687</v>
+        <v>0.3044576777357281</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>44208.13333333333</v>
       </c>
       <c r="B138">
-        <v>0.2963694912872361</v>
+        <v>0.2987107636317919</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>44208.14166666667</v>
       </c>
       <c r="B139">
-        <v>0.2955344507033123</v>
+        <v>0.2962481365684593</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>44208.15</v>
       </c>
       <c r="B140">
-        <v>0.2952624622339084</v>
+        <v>0.2932873810035946</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>44208.15833333333</v>
       </c>
       <c r="B141">
-        <v>0.2971342709305711</v>
+        <v>0.2914277740702002</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>44208.20833333334</v>
       </c>
       <c r="B147">
-        <v>0.2843300208586516</v>
+        <v>0.2799805586825906</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1556,7 +1556,7 @@
         <v>44208.21666666667</v>
       </c>
       <c r="B148">
-        <v>0.2847026050630545</v>
+        <v>0.2805145853872322</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1564,7 +1564,7 @@
         <v>44208.225</v>
       </c>
       <c r="B149">
-        <v>0.2851599047130378</v>
+        <v>0.2854265300672184</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1572,7 +1572,7 @@
         <v>44208.23333333333</v>
       </c>
       <c r="B150">
-        <v>0.2857410048400565</v>
+        <v>0.2899930929182961</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1580,7 +1580,7 @@
         <v>44208.24166666667</v>
       </c>
       <c r="B151">
-        <v>0.2869348326434283</v>
+        <v>0.2964391619783664</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1628,7 +1628,7 @@
         <v>44208.29166666666</v>
       </c>
       <c r="B157">
-        <v>0.3037178290755499</v>
+        <v>0.2947754317158955</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1636,7 +1636,7 @@
         <v>44208.3</v>
       </c>
       <c r="B158">
-        <v>0.3029427710350228</v>
+        <v>0.3070175647115088</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1644,7 +1644,7 @@
         <v>44208.30833333333</v>
       </c>
       <c r="B159">
-        <v>0.3011904486894212</v>
+        <v>0.3053990001654037</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>44208.31666666667</v>
       </c>
       <c r="B160">
-        <v>0.2990780025214959</v>
+        <v>0.3062635607825854</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>44208.325</v>
       </c>
       <c r="B161">
-        <v>0.2987043429646101</v>
+        <v>0.3031737568766711</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1708,7 +1708,7 @@
         <v>44208.375</v>
       </c>
       <c r="B167">
-        <v>0.3020944612289163</v>
+        <v>0.3040433900782969</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1716,7 +1716,7 @@
         <v>44208.38333333333</v>
       </c>
       <c r="B168">
-        <v>0.3126574925172739</v>
+        <v>0.3089626987216089</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1724,7 +1724,7 @@
         <v>44208.39166666667</v>
       </c>
       <c r="B169">
-        <v>0.3256987476076844</v>
+        <v>0.3168756773719763</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1732,7 +1732,7 @@
         <v>44208.4</v>
       </c>
       <c r="B170">
-        <v>0.3390216065280643</v>
+        <v>0.3258967264661701</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1740,7 +1740,7 @@
         <v>44208.40833333333</v>
       </c>
       <c r="B171">
-        <v>0.3528605408344445</v>
+        <v>0.3346678865711098</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1788,7 +1788,7 @@
         <v>44208.45833333334</v>
       </c>
       <c r="B177">
-        <v>0.3581815260263251</v>
+        <v>0.3289370936017981</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1796,7 +1796,7 @@
         <v>44208.46666666667</v>
       </c>
       <c r="B178">
-        <v>0.3604900079031255</v>
+        <v>0.3419429926296921</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1804,7 +1804,7 @@
         <v>44208.475</v>
       </c>
       <c r="B179">
-        <v>0.367826128639507</v>
+        <v>0.3524691510773058</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1812,7 +1812,7 @@
         <v>44208.48333333333</v>
       </c>
       <c r="B180">
-        <v>0.3777950225317968</v>
+        <v>0.3583013277621883</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1820,7 +1820,7 @@
         <v>44208.49166666667</v>
       </c>
       <c r="B181">
-        <v>0.3919069083377538</v>
+        <v>0.3788223676316178</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1868,7 +1868,7 @@
         <v>44208.54166666666</v>
       </c>
       <c r="B187">
-        <v>0.4254542387444373</v>
+        <v>0.4380790545016826</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1876,7 +1876,7 @@
         <v>44208.55</v>
       </c>
       <c r="B188">
-        <v>0.4240220932256956</v>
+        <v>0.4269501671308291</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1884,7 +1884,7 @@
         <v>44208.55833333333</v>
       </c>
       <c r="B189">
-        <v>0.4177103301644867</v>
+        <v>0.4171407147601612</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1892,7 +1892,7 @@
         <v>44208.56666666667</v>
       </c>
       <c r="B190">
-        <v>0.4079586915208134</v>
+        <v>0.4066574415844177</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1900,7 +1900,7 @@
         <v>44208.575</v>
       </c>
       <c r="B191">
-        <v>0.3954272238432486</v>
+        <v>0.4025272128877876</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1948,7 +1948,7 @@
         <v>44208.625</v>
       </c>
       <c r="B197">
-        <v>0.4006359273413784</v>
+        <v>0.3953399437617159</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1956,7 +1956,7 @@
         <v>44208.63333333333</v>
       </c>
       <c r="B198">
-        <v>0.3964798808530172</v>
+        <v>0.3950490838090398</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1964,7 +1964,7 @@
         <v>44208.64166666667</v>
       </c>
       <c r="B199">
-        <v>0.3888983612758298</v>
+        <v>0.3995957094934747</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1972,7 +1972,7 @@
         <v>44208.65</v>
       </c>
       <c r="B200">
-        <v>0.3792921393884451</v>
+        <v>0.3887876450957937</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1980,7 +1980,7 @@
         <v>44208.65833333333</v>
       </c>
       <c r="B201">
-        <v>0.3674547346428249</v>
+        <v>0.367470318606827</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2028,7 +2028,7 @@
         <v>44208.70833333334</v>
       </c>
       <c r="B207">
-        <v>0.342450808221931</v>
+        <v>0.380180986285205</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2036,7 +2036,7 @@
         <v>44208.71666666667</v>
       </c>
       <c r="B208">
-        <v>0.3490991020892542</v>
+        <v>0.3931559077601068</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2044,7 +2044,7 @@
         <v>44208.725</v>
       </c>
       <c r="B209">
-        <v>0.3583814749941097</v>
+        <v>0.4156684340327997</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2052,7 +2052,7 @@
         <v>44208.73333333333</v>
       </c>
       <c r="B210">
-        <v>0.367120117290759</v>
+        <v>0.4304945969661821</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2060,7 +2060,7 @@
         <v>44208.74166666667</v>
       </c>
       <c r="B211">
-        <v>0.3734882541910041</v>
+        <v>0.4447023823444567</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2108,7 +2108,7 @@
         <v>44208.79166666666</v>
       </c>
       <c r="B217">
-        <v>0.4230002032857982</v>
+        <v>0.4984230608095271</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2116,7 +2116,7 @@
         <v>44208.8</v>
       </c>
       <c r="B218">
-        <v>0.4055723043884245</v>
+        <v>0.4794292263214985</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2124,7 +2124,7 @@
         <v>44208.80833333333</v>
       </c>
       <c r="B219">
-        <v>0.4043178349190167</v>
+        <v>0.4354949326804494</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2132,7 +2132,7 @@
         <v>44208.81666666667</v>
       </c>
       <c r="B220">
-        <v>0.3803963335107602</v>
+        <v>0.3718673908588713</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2140,7 +2140,7 @@
         <v>44208.825</v>
       </c>
       <c r="B221">
-        <v>0.3777409095418877</v>
+        <v>0.3526623188952908</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2188,7 +2188,7 @@
         <v>44208.875</v>
       </c>
       <c r="B227">
-        <v>0.2896494879071697</v>
+        <v>0.2998297792987154</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2196,7 +2196,7 @@
         <v>44208.88333333333</v>
       </c>
       <c r="B228">
-        <v>0.2960160039909459</v>
+        <v>0.2802762646239133</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2204,7 +2204,7 @@
         <v>44208.89166666667</v>
       </c>
       <c r="B229">
-        <v>0.3081706298073316</v>
+        <v>0.2694221596210386</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2212,7 +2212,7 @@
         <v>44208.9</v>
       </c>
       <c r="B230">
-        <v>0.3146380620870343</v>
+        <v>0.2843129699117629</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2220,7 +2220,7 @@
         <v>44208.90833333333</v>
       </c>
       <c r="B231">
-        <v>0.3222121727368525</v>
+        <v>0.2938574369663222</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>44208.95833333334</v>
       </c>
       <c r="B237">
-        <v>0.458938191008513</v>
+        <v>0.417571044054947</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2276,7 +2276,7 @@
         <v>44208.96666666667</v>
       </c>
       <c r="B238">
-        <v>0.4744392889512054</v>
+        <v>0.4419138241299684</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2284,7 +2284,7 @@
         <v>44208.975</v>
       </c>
       <c r="B239">
-        <v>0.4806868514791892</v>
+        <v>0.4649067389770968</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2292,7 +2292,7 @@
         <v>44208.98333333333</v>
       </c>
       <c r="B240">
-        <v>0.4813700238675801</v>
+        <v>0.4488793081432226</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2300,7 +2300,7 @@
         <v>44208.99166666667</v>
       </c>
       <c r="B241">
-        <v>0.4746127765667827</v>
+        <v>0.4221647454679752</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2348,7 +2348,7 @@
         <v>44209.04166666666</v>
       </c>
       <c r="B247">
-        <v>0.2915375809563028</v>
+        <v>0.3217227748745782</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2356,7 +2356,7 @@
         <v>44209.05</v>
       </c>
       <c r="B248">
-        <v>0.2910605725503403</v>
+        <v>0.3086368724059519</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2364,7 +2364,7 @@
         <v>44209.05833333333</v>
       </c>
       <c r="B249">
-        <v>0.295433925987118</v>
+        <v>0.307043100079575</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2372,7 +2372,7 @@
         <v>44209.06666666667</v>
       </c>
       <c r="B250">
-        <v>0.3050157892730538</v>
+        <v>0.3195274611885889</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2380,7 +2380,7 @@
         <v>44209.075</v>
       </c>
       <c r="B251">
-        <v>0.318232861383329</v>
+        <v>0.3341076907739293</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2428,7 +2428,7 @@
         <v>44209.125</v>
       </c>
       <c r="B257">
-        <v>0.2856031439701693</v>
+        <v>0.3070201160957618</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2436,7 +2436,7 @@
         <v>44209.13333333333</v>
       </c>
       <c r="B258">
-        <v>0.2758630930313811</v>
+        <v>0.3054291225333851</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2444,7 +2444,7 @@
         <v>44209.14166666667</v>
       </c>
       <c r="B259">
-        <v>0.2719949493904404</v>
+        <v>0.3032156794504854</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2452,7 +2452,7 @@
         <v>44209.15</v>
       </c>
       <c r="B260">
-        <v>0.2681934989418409</v>
+        <v>0.3071578853339496</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2460,7 +2460,7 @@
         <v>44209.15833333333</v>
       </c>
       <c r="B261">
-        <v>0.2707531434310058</v>
+        <v>0.3075979402609549</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2508,7 +2508,7 @@
         <v>44209.20833333334</v>
       </c>
       <c r="B267">
-        <v>0.3240537772116256</v>
+        <v>0.3020659172950265</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2516,7 +2516,7 @@
         <v>44209.21666666667</v>
       </c>
       <c r="B268">
-        <v>0.3213045403171242</v>
+        <v>0.3064136860563855</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2524,7 +2524,7 @@
         <v>44209.225</v>
       </c>
       <c r="B269">
-        <v>0.3179237437279035</v>
+        <v>0.3112536914479644</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2532,7 +2532,7 @@
         <v>44209.23333333333</v>
       </c>
       <c r="B270">
-        <v>0.3130442107830441</v>
+        <v>0.3144393271712035</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2540,7 +2540,7 @@
         <v>44209.24166666667</v>
       </c>
       <c r="B271">
-        <v>0.3083674502209098</v>
+        <v>0.3166184194193351</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2588,7 +2588,7 @@
         <v>44209.29166666666</v>
       </c>
       <c r="B277">
-        <v>0.3154530014155728</v>
+        <v>0.3109129492438363</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2596,7 +2596,7 @@
         <v>44209.3</v>
       </c>
       <c r="B278">
-        <v>0.3157396480860924</v>
+        <v>0.3189073584554133</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2604,7 +2604,7 @@
         <v>44209.30833333333</v>
       </c>
       <c r="B279">
-        <v>0.3161204148318361</v>
+        <v>0.327283796084061</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2612,7 +2612,7 @@
         <v>44209.31666666667</v>
       </c>
       <c r="B280">
-        <v>0.3162415872442023</v>
+        <v>0.3357424636836827</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2620,7 +2620,7 @@
         <v>44209.325</v>
       </c>
       <c r="B281">
-        <v>0.3165104272033669</v>
+        <v>0.3435261272054875</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2668,7 +2668,7 @@
         <v>44209.375</v>
       </c>
       <c r="B287">
-        <v>0.3686774728280165</v>
+        <v>0.3615869823149412</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2676,7 +2676,7 @@
         <v>44209.38333333333</v>
       </c>
       <c r="B288">
-        <v>0.3707196283549313</v>
+        <v>0.3605346772769379</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2684,7 +2684,7 @@
         <v>44209.39166666667</v>
       </c>
       <c r="B289">
-        <v>0.3715597678630855</v>
+        <v>0.3522832941566186</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2692,7 +2692,7 @@
         <v>44209.4</v>
       </c>
       <c r="B290">
-        <v>0.3719126058244186</v>
+        <v>0.3513937238965356</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2700,7 +2700,7 @@
         <v>44209.40833333333</v>
       </c>
       <c r="B291">
-        <v>0.3720868825689306</v>
+        <v>0.3460535875359889</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2748,7 +2748,7 @@
         <v>44209.45833333334</v>
       </c>
       <c r="B297">
-        <v>0.3376228849906908</v>
+        <v>0.3179118355570664</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2756,7 +2756,7 @@
         <v>44209.46666666667</v>
       </c>
       <c r="B298">
-        <v>0.3494741600522678</v>
+        <v>0.3190527977369351</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2764,7 +2764,7 @@
         <v>44209.475</v>
       </c>
       <c r="B299">
-        <v>0.3603789758092457</v>
+        <v>0.3204817474691158</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2772,7 +2772,7 @@
         <v>44209.48333333333</v>
       </c>
       <c r="B300">
-        <v>0.3706983874932026</v>
+        <v>0.3227191635427043</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2780,7 +2780,7 @@
         <v>44209.49166666667</v>
       </c>
       <c r="B301">
-        <v>0.3854168104711584</v>
+        <v>0.3336517963199191</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2828,7 +2828,7 @@
         <v>44209.54166666666</v>
       </c>
       <c r="B307">
-        <v>0.3586983979907027</v>
+        <v>0.370958874739964</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2836,7 +2836,7 @@
         <v>44209.55</v>
       </c>
       <c r="B308">
-        <v>0.3627404828664473</v>
+        <v>0.3725234196995267</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2844,7 +2844,7 @@
         <v>44209.55833333333</v>
       </c>
       <c r="B309">
-        <v>0.3659035015158551</v>
+        <v>0.3682087624273105</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2852,7 +2852,7 @@
         <v>44209.56666666667</v>
       </c>
       <c r="B310">
-        <v>0.3669672405793598</v>
+        <v>0.3644998865301738</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2860,7 +2860,7 @@
         <v>44209.575</v>
       </c>
       <c r="B311">
-        <v>0.3645332695291342</v>
+        <v>0.3602284469416465</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2908,7 +2908,7 @@
         <v>44209.625</v>
       </c>
       <c r="B317">
-        <v>0.3472663121632362</v>
+        <v>0.3450491617855928</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2916,7 +2916,7 @@
         <v>44209.63333333333</v>
       </c>
       <c r="B318">
-        <v>0.3450336988544555</v>
+        <v>0.3474534044275525</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2924,7 +2924,7 @@
         <v>44209.64166666667</v>
       </c>
       <c r="B319">
-        <v>0.3400098614014927</v>
+        <v>0.3468879596558159</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2932,7 +2932,7 @@
         <v>44209.65</v>
       </c>
       <c r="B320">
-        <v>0.3336036594505518</v>
+        <v>0.3522071484694483</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2940,7 +2940,7 @@
         <v>44209.65833333333</v>
       </c>
       <c r="B321">
-        <v>0.3274120277785304</v>
+        <v>0.3496208980634706</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2988,7 +2988,7 @@
         <v>44209.70833333334</v>
       </c>
       <c r="B327">
-        <v>0.3307043203862328</v>
+        <v>0.3261975405227655</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2996,7 +2996,7 @@
         <v>44209.71666666667</v>
       </c>
       <c r="B328">
-        <v>0.3357670056864658</v>
+        <v>0.3387838051570325</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3004,7 +3004,7 @@
         <v>44209.725</v>
       </c>
       <c r="B329">
-        <v>0.3459308769497659</v>
+        <v>0.3335524199044026</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3012,7 +3012,7 @@
         <v>44209.73333333333</v>
       </c>
       <c r="B330">
-        <v>0.3581227927303502</v>
+        <v>0.3307864219990704</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3020,7 +3020,7 @@
         <v>44209.74166666667</v>
       </c>
       <c r="B331">
-        <v>0.3676527937447449</v>
+        <v>0.3402489118417011</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3068,7 +3068,7 @@
         <v>44209.79166666666</v>
       </c>
       <c r="B337">
-        <v>0.3845785391830366</v>
+        <v>0.3219451337902062</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3076,7 +3076,7 @@
         <v>44209.8</v>
       </c>
       <c r="B338">
-        <v>0.3822417239650424</v>
+        <v>0.4017067133487884</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3084,7 +3084,7 @@
         <v>44209.80833333333</v>
       </c>
       <c r="B339">
-        <v>0.3766779422620927</v>
+        <v>0.4286777210696681</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3092,7 +3092,7 @@
         <v>44209.81666666667</v>
       </c>
       <c r="B340">
-        <v>0.3706383799907972</v>
+        <v>0.4299909475987556</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3100,7 +3100,7 @@
         <v>44209.825</v>
       </c>
       <c r="B341">
-        <v>0.361256683158827</v>
+        <v>0.4412787172411326</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3148,7 +3148,7 @@
         <v>44209.875</v>
       </c>
       <c r="B347">
-        <v>0.3834611704360477</v>
+        <v>0.3570275451316711</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3156,7 +3156,7 @@
         <v>44209.88333333333</v>
       </c>
       <c r="B348">
-        <v>0.353085248357457</v>
+        <v>0.3372992438989449</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3164,7 +3164,7 @@
         <v>44209.89166666667</v>
       </c>
       <c r="B349">
-        <v>0.3408205688728793</v>
+        <v>0.3898621657380916</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>44209.9</v>
       </c>
       <c r="B350">
-        <v>0.3344505516384516</v>
+        <v>0.3698439282682625</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3180,7 +3180,47 @@
         <v>44209.90833333333</v>
       </c>
       <c r="B351">
-        <v>0.3327901379199884</v>
+        <v>0.3674630582927586</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2">
+        <v>44209.91666666666</v>
+      </c>
+      <c r="B352">
+        <v>0.3396609891499827</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2">
+        <v>44209.925</v>
+      </c>
+      <c r="B353">
+        <v>0.3541537005157553</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2">
+        <v>44209.93333333333</v>
+      </c>
+      <c r="B354">
+        <v>0.3697879748060656</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2">
+        <v>44209.94166666667</v>
+      </c>
+      <c r="B355">
+        <v>0.3845979499337702</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2">
+        <v>44209.95</v>
+      </c>
+      <c r="B356">
+        <v>0.3712116279875736</v>
       </c>
     </row>
   </sheetData>
